--- a/biology/Botanique/Potamogeton_gramineus/Potamogeton_gramineus.xlsx
+++ b/biology/Botanique/Potamogeton_gramineus/Potamogeton_gramineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton gramineus, de noms communs Potamot à feuilles de graminée ou Potamot graminée, est une plante aquatique vivace du genre Potamot, de la famille des Potamogetonaceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace, glabre, à tiges rameuses, grêles, cylindriques ; les feuilles submergées sont membraneuses, lancéolées-linéaires, mucronées, larges de 3-6 mm, à bords un peu rudes, sessiles et atténuées à la base ; les flottantes (souvent nulles) sont coriaces, longuement pétiolées, ovales ou oblongues, souvent larges de 2-3 cm[1].
-Appareil reproducteur
-Les pédoncules sont renflés dans le haut, plus gros que la tige ; l'épi fructifère est  long de 2-3 cm, cylindrique ; les carpelles de 2 1/2 à 3 sur 1 3/4 à 2 mm, sont ovoïdes-comprimés, à bord obtus, à bec court et un peu arqué.
-La floraison se déroule de juin à septembre[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace, glabre, à tiges rameuses, grêles, cylindriques ; les feuilles submergées sont membraneuses, lancéolées-linéaires, mucronées, larges de 3-6 mm, à bords un peu rudes, sessiles et atténuées à la base ; les flottantes (souvent nulles) sont coriaces, longuement pétiolées, ovales ou oblongues, souvent larges de 2-3 cm.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un habitant des eaux calmes plus ou moins profondes (lacs, étangs, mares et même zones inondables pouvant être mises à sec temporairement[2], jusqu'à une altitude de 1 000 m[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pédoncules sont renflés dans le haut, plus gros que la tige ; l'épi fructifère est  long de 2-3 cm, cylindrique ; les carpelles de 2 1/2 à 3 sur 1 3/4 à 2 mm, sont ovoïdes-comprimés, à bord obtus, à bec court et un peu arqué.
+La floraison se déroule de juin à septembre.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est présente dans tout l'hémisphère Nord (Europe, Asie, Amérique du Nord)[2].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un habitant des eaux calmes plus ou moins profondes (lacs, étangs, mares et même zones inondables pouvant être mises à sec temporairement, jusqu'à une altitude de 1 000 m.
 </t>
         </is>
       </c>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est présente dans tout l'hémisphère Nord (Europe, Asie, Amérique du Nord).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potamogeton_gramineus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potamogeton_gramineus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Buccaferrea variifolia Bubani, 1902
 Potamogeton gramineus L. var. gramineus
@@ -621,7 +679,7 @@
 Potamogeton gramineus var. terrestris Fr., 1828
 Potamogeton heterophyllus auct. non Schreb., 1771
 Potamogeton proteus var. heterophyllus (Schreb.) Cham. &amp; Schltdl., 1827
-Potamogeton rufescens subsp. nigrescens (Fr.) Nyman, 1882[4]</t>
+Potamogeton rufescens subsp. nigrescens (Fr.) Nyman, 1882</t>
         </is>
       </c>
     </row>
